--- a/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 7,38</t>
+          <t>-6,15; 7,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 18,54</t>
+          <t>2,54; 19,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 17,16</t>
+          <t>2,87; 16,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 42,85</t>
+          <t>-26,09; 45,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 76,43</t>
+          <t>6,94; 84,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 80,0</t>
+          <t>10,58; 80,76</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 15,48</t>
+          <t>4,81; 15,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 12,94</t>
+          <t>4,2; 13,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 10,91</t>
+          <t>1,81; 11,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 11,5</t>
+          <t>3,2; 11,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,2; 73,26</t>
+          <t>17,68; 74,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,99; 178,74</t>
+          <t>33,68; 168,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,33; 104,45</t>
+          <t>12,28; 103,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,48; 131,38</t>
+          <t>22,56; 127,84</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 14,93</t>
+          <t>3,8; 14,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 11,26</t>
+          <t>-0,99; 11,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 9,8</t>
+          <t>-3,05; 9,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 6,13</t>
+          <t>-4,46; 5,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,25; 171,72</t>
+          <t>25,12; 172,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 87,52</t>
+          <t>-6,9; 94,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 52,8</t>
+          <t>-13,82; 54,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 46,44</t>
+          <t>-22,87; 41,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 19,32</t>
+          <t>7,87; 19,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 18,75</t>
+          <t>8,71; 19,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 13,32</t>
+          <t>0,44; 12,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 8,86</t>
+          <t>-4,45; 8,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,6; 175,14</t>
+          <t>45,45; 168,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,62; 95,6</t>
+          <t>33,29; 96,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 77,08</t>
+          <t>1,87; 71,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 60,18</t>
+          <t>-19,43; 55,85</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 20,06</t>
+          <t>0,23; 20,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 25,05</t>
+          <t>8,51; 25,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 14,09</t>
+          <t>-2,27; 13,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,72; 21,23</t>
+          <t>4,94; 19,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 69,69</t>
+          <t>1,84; 71,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,48; 204,0</t>
+          <t>40,69; 204,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 79,92</t>
+          <t>-9,49; 77,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,34; 63,85</t>
+          <t>12,13; 57,68</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,76; 21,88</t>
+          <t>7,69; 22,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 9,3</t>
+          <t>-4,75; 8,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 12,12</t>
+          <t>-1,03; 11,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 3,41</t>
+          <t>-5,83; 4,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,31; 231,37</t>
+          <t>44,85; 221,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 81,41</t>
+          <t>-24,47; 75,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 122,85</t>
+          <t>-7,31; 117,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 24,17</t>
+          <t>-29,95; 32,47</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,49; 16,74</t>
+          <t>8,37; 17,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 10,73</t>
+          <t>0,34; 9,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 12,0</t>
+          <t>3,39; 12,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 8,67</t>
+          <t>-6,08; 8,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,78; 198,23</t>
+          <t>66,68; 199,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 61,85</t>
+          <t>1,45; 55,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,99; 81,32</t>
+          <t>18,72; 90,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 47,16</t>
+          <t>-28,4; 44,89</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,08; 13,2</t>
+          <t>3,59; 13,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,06; 10,59</t>
+          <t>2,02; 10,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 9,2</t>
+          <t>3,4; 9,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,71; 11,97</t>
+          <t>5,19; 12,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,73; 49,25</t>
+          <t>11,12; 49,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,68; 70,06</t>
+          <t>9,77; 67,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,37; 158,75</t>
+          <t>38,43; 152,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,77; 144,5</t>
+          <t>43,98; 149,15</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,19</t>
+          <t>8,08; 12,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,14</t>
+          <t>6,01; 10,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,61</t>
+          <t>4,81; 8,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,53</t>
+          <t>2,97; 7,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>40,29; 65,64</t>
+          <t>39,67; 66,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>33,59; 61,97</t>
+          <t>32,66; 62,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,52; 57,94</t>
+          <t>29,04; 57,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,59; 47,63</t>
+          <t>17,9; 49,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 7,3</t>
+          <t>-5,53; 8,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 19,23</t>
+          <t>2,97; 19,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 45,05</t>
+          <t>-24,66; 47,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 84,55</t>
+          <t>9,06; 80,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 15,66</t>
+          <t>4,21; 15,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,09</t>
+          <t>4,21; 12,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 11,18</t>
+          <t>1,79; 11,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,68; 74,56</t>
+          <t>15,98; 76,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,68; 168,93</t>
+          <t>33,68; 171,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 103,58</t>
+          <t>11,37; 104,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 14,98</t>
+          <t>3,95; 15,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 11,55</t>
+          <t>-1,44; 10,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 9,79</t>
+          <t>-2,31; 10,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,12; 172,73</t>
+          <t>26,46; 176,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 94,18</t>
+          <t>-7,94; 88,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 54,86</t>
+          <t>-10,81; 58,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 19,21</t>
+          <t>7,03; 18,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 19,26</t>
+          <t>8,81; 19,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 12,79</t>
+          <t>0,57; 13,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,45; 168,45</t>
+          <t>42,9; 172,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,29; 96,4</t>
+          <t>35,4; 95,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 71,52</t>
+          <t>2,73; 76,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 20,14</t>
+          <t>1,55; 20,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 25,51</t>
+          <t>8,25; 25,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 13,77</t>
+          <t>-2,02; 13,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 71,62</t>
+          <t>3,45; 69,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,69; 204,3</t>
+          <t>38,99; 201,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 77,99</t>
+          <t>-8,56; 78,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,69; 22,08</t>
+          <t>9,22; 22,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 8,91</t>
+          <t>-3,58; 9,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 11,71</t>
+          <t>-0,39; 11,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,85; 221,41</t>
+          <t>60,66; 238,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 75,83</t>
+          <t>-20,99; 76,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 117,84</t>
+          <t>-3,0; 116,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,37; 17,16</t>
+          <t>8,34; 16,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,87</t>
+          <t>0,29; 10,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,39; 12,66</t>
+          <t>2,96; 11,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,68; 199,54</t>
+          <t>63,64; 190,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 55,36</t>
+          <t>0,78; 53,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,72; 90,2</t>
+          <t>15,62; 83,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,59; 13,41</t>
+          <t>3,52; 12,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,02; 10,57</t>
+          <t>1,9; 10,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,31</t>
+          <t>3,37; 9,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,12; 49,35</t>
+          <t>10,69; 47,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,77; 67,75</t>
+          <t>9,46; 66,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,43; 152,22</t>
+          <t>37,66; 163,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,33</t>
+          <t>8,19; 12,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,3</t>
+          <t>6,25; 10,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,46</t>
+          <t>4,69; 8,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>39,67; 66,41</t>
+          <t>40,44; 67,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,66; 62,14</t>
+          <t>34,49; 63,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>29,04; 57,44</t>
+          <t>28,09; 57,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 8,08</t>
+          <t>-6,86; 7,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 19,04</t>
+          <t>1,83; 18,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 16,55</t>
+          <t>4,18; 17,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 47,41</t>
+          <t>-28,46; 42,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,06; 80,34</t>
+          <t>5,5; 76,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 80,76</t>
+          <t>13,65; 80,0</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 15,53</t>
+          <t>4,39; 15,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 12,75</t>
+          <t>3,99; 12,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 11,17</t>
+          <t>1,97; 10,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 11,35</t>
+          <t>3,43; 11,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 76,0</t>
+          <t>16,2; 73,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,68; 171,64</t>
+          <t>32,99; 178,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,37; 104,27</t>
+          <t>13,33; 104,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,56; 127,84</t>
+          <t>24,48; 131,38</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 15,41</t>
+          <t>4,04; 14,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 10,86</t>
+          <t>-0,96; 11,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 10,48</t>
+          <t>-3,13; 9,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,47</t>
+          <t>-3,69; 6,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,46; 176,99</t>
+          <t>27,25; 171,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 88,79</t>
+          <t>-5,89; 87,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 58,02</t>
+          <t>-12,62; 52,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 41,17</t>
+          <t>-20,0; 46,44</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 18,95</t>
+          <t>7,57; 19,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 19,09</t>
+          <t>8,58; 18,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 13,25</t>
+          <t>0,84; 13,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 8,22</t>
+          <t>-3,95; 8,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,9; 172,11</t>
+          <t>45,6; 175,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,4; 95,06</t>
+          <t>34,62; 95,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 76,91</t>
+          <t>2,67; 77,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 55,85</t>
+          <t>-17,78; 60,18</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 20,67</t>
+          <t>1,11; 20,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 25,04</t>
+          <t>7,96; 25,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 13,93</t>
+          <t>-2,6; 14,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 19,63</t>
+          <t>5,72; 21,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 69,67</t>
+          <t>2,64; 69,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,99; 201,97</t>
+          <t>38,48; 204,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 78,97</t>
+          <t>-9,94; 79,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 57,68</t>
+          <t>13,34; 63,85</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,22; 22,37</t>
+          <t>8,76; 21,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 9,04</t>
+          <t>-3,35; 9,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 11,89</t>
+          <t>-0,83; 12,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 4,61</t>
+          <t>-6,25; 3,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,66; 238,1</t>
+          <t>54,31; 231,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 76,03</t>
+          <t>-19,05; 81,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 116,51</t>
+          <t>-6,46; 122,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,95; 32,47</t>
+          <t>-30,89; 24,17</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,34; 16,7</t>
+          <t>8,49; 16,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 10,05</t>
+          <t>0,93; 10,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 11,97</t>
+          <t>2,86; 12,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 8,32</t>
+          <t>-6,27; 8,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>63,64; 190,44</t>
+          <t>66,78; 198,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 53,99</t>
+          <t>3,96; 61,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,62; 83,4</t>
+          <t>14,99; 81,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 44,89</t>
+          <t>-28,08; 47,16</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,98</t>
+          <t>3,08; 13,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,18</t>
+          <t>2,06; 10,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,74</t>
+          <t>3,07; 9,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,3</t>
+          <t>4,71; 11,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,69; 47,99</t>
+          <t>9,73; 49,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,46; 66,3</t>
+          <t>10,68; 70,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,66; 163,74</t>
+          <t>36,37; 158,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,98; 149,15</t>
+          <t>38,77; 144,5</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,34</t>
+          <t>8,19; 12,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,4</t>
+          <t>6,13; 10,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,59</t>
+          <t>4,64; 8,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,82</t>
+          <t>2,88; 7,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>40,44; 67,11</t>
+          <t>40,29; 65,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,49; 63,65</t>
+          <t>33,59; 61,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,09; 57,66</t>
+          <t>27,52; 57,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,9; 49,38</t>
+          <t>16,59; 47,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,7</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,57%</t>
+          <t>50,53%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 12,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 17,16</t>
+          <t>5,1; 18,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,76; 52,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 80,0</t>
+          <t>18,38; 93,28</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,33%</t>
+          <t>71,79%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 11,5</t>
+          <t>3,57; 11,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,48; 131,38</t>
+          <t>25,86; 135,44</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 6,13</t>
+          <t>-3,37; 6,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 46,44</t>
+          <t>-18,89; 48,66</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,77</t>
+          <t>20,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,51%</t>
+          <t>108,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>-6,73%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 18,75</t>
+          <t>13,87; 27,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 8,86</t>
+          <t>-10,61; 5,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,62; 95,6</t>
+          <t>63,49; 177,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 60,18</t>
+          <t>-49,41; 36,75</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>13,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>34,19%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,72; 21,23</t>
+          <t>5,79; 20,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,34; 63,85</t>
+          <t>13,55; 63,21</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>-4,88%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 3,41</t>
+          <t>-6,05; 3,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 24,17</t>
+          <t>-29,98; 25,85</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 8,67</t>
+          <t>-10,87; 8,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 47,16</t>
+          <t>-48,57; 46,14</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>81,75%</t>
+          <t>131,46%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,71; 11,97</t>
+          <t>6,15; 15,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,77; 144,5</t>
+          <t>53,43; 383,19</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>36,52%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,53</t>
+          <t>1,62; 9,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,59; 47,63</t>
+          <t>11,35; 67,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 7,38</t>
+          <t>-5,85; 8,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 12,25</t>
+          <t>-2,49; 13,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 18,54</t>
+          <t>3,36; 19,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 18,11</t>
+          <t>4,94; 18,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 42,85</t>
+          <t>-25,0; 46,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 52,83</t>
+          <t>-8,34; 56,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 76,43</t>
+          <t>11,61; 86,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 93,28</t>
+          <t>19,79; 99,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 15,48</t>
+          <t>4,4; 16,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 12,94</t>
+          <t>3,69; 12,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 10,91</t>
+          <t>1,89; 10,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 11,74</t>
+          <t>3,34; 11,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,2; 73,26</t>
+          <t>17,41; 79,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,99; 178,74</t>
+          <t>28,25; 172,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,33; 104,45</t>
+          <t>11,84; 99,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,86; 135,44</t>
+          <t>22,66; 134,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 14,93</t>
+          <t>3,96; 15,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 11,26</t>
+          <t>-0,95; 10,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 9,8</t>
+          <t>-3,34; 9,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 6,34</t>
+          <t>-4,09; 6,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,25; 171,72</t>
+          <t>28,27; 173,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 87,52</t>
+          <t>-6,35; 90,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 52,8</t>
+          <t>-13,68; 50,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 48,66</t>
+          <t>-21,73; 47,83</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 19,32</t>
+          <t>7,46; 19,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 27,05</t>
+          <t>14,06; 26,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 13,32</t>
+          <t>1,16; 13,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 5,9</t>
+          <t>-10,72; 5,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,6; 175,14</t>
+          <t>47,1; 172,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,49; 177,69</t>
+          <t>63,66; 175,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 77,08</t>
+          <t>4,84; 80,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,41; 36,75</t>
+          <t>-47,75; 38,9</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 20,06</t>
+          <t>1,18; 20,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 25,05</t>
+          <t>8,39; 25,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 14,09</t>
+          <t>-1,23; 14,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 20,94</t>
+          <t>4,21; 20,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 69,69</t>
+          <t>2,94; 69,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,48; 204,0</t>
+          <t>38,7; 205,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 79,92</t>
+          <t>-5,54; 81,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,55; 63,21</t>
+          <t>9,78; 61,06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,76; 21,88</t>
+          <t>8,52; 21,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 9,3</t>
+          <t>-4,33; 8,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 12,12</t>
+          <t>-0,82; 11,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 3,7</t>
+          <t>-5,59; 4,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,31; 231,37</t>
+          <t>52,31; 228,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 81,41</t>
+          <t>-24,13; 75,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 122,85</t>
+          <t>-5,91; 120,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 25,85</t>
+          <t>-29,08; 29,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,49; 16,74</t>
+          <t>8,34; 16,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 10,73</t>
+          <t>0,97; 10,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 12,0</t>
+          <t>2,84; 12,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 8,6</t>
+          <t>-10,78; 7,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,78; 198,23</t>
+          <t>69,52; 194,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 61,85</t>
+          <t>3,88; 57,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,99; 81,32</t>
+          <t>14,86; 81,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 46,14</t>
+          <t>-47,63; 41,54</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,08; 13,2</t>
+          <t>3,32; 13,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,06; 10,59</t>
+          <t>2,37; 10,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 9,2</t>
+          <t>2,8; 9,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,15; 15,98</t>
+          <t>6,27; 16,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,73; 49,25</t>
+          <t>10,37; 48,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,68; 70,06</t>
+          <t>12,51; 64,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,37; 158,75</t>
+          <t>29,75; 150,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>53,43; 383,19</t>
+          <t>52,18; 408,27</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,19</t>
+          <t>7,88; 12,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,14</t>
+          <t>6,18; 10,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,61</t>
+          <t>4,58; 8,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,06</t>
+          <t>2,0; 9,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>40,29; 65,64</t>
+          <t>37,8; 65,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>33,59; 61,97</t>
+          <t>33,8; 62,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,52; 57,94</t>
+          <t>27,55; 57,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,35; 67,89</t>
+          <t>13,92; 70,41</t>
         </is>
       </c>
     </row>
